--- a/DOWNSTREAM_ANALYSIS/COMPILED_DATA/SAMPLE_DETAILS.xlsx
+++ b/DOWNSTREAM_ANALYSIS/COMPILED_DATA/SAMPLE_DETAILS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vaskar/Box/Post_Doc_Goteborg/P_drf_Syntox_20210429/RAW_DATA_TRANSCRIPTOMICS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://risecloud-my.sharepoint.com/personal/vaskar_mukherjee_processum_se/Documents/Post_Doc_Goteborg/P_drf_Syntox_20210429/GIT_SUB/Mixtox_transcriptomics/DOWNSTREAM_ANALYSIS/COMPILED_DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0030A6-69C5-814B-B362-1054A4791CC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0030A6-69C5-814B-B362-1054A4791CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="2240" windowWidth="28040" windowHeight="17440" xr2:uid="{2A03F1DD-D90D-4C4C-8326-BDADA00A5F09}"/>
+    <workbookView minimized="1" xWindow="680" yWindow="3150" windowWidth="9600" windowHeight="4910" activeTab="1" xr2:uid="{2A03F1DD-D90D-4C4C-8326-BDADA00A5F09}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -546,21 +546,12 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -571,6 +562,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,11 +888,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2A5F30-DB56-8E4B-82DA-5B158F22706B}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="56.5" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
@@ -901,182 +901,182 @@
     <col min="5" max="5" width="72" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" ht="170" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="155" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="5" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1089,1059 +1089,1059 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66681D85-0E65-894E-B373-D8414F9F60EB}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="3">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="3">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="3">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="3">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="3">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="3">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="3">
-        <v>10</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="C18" s="2">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="3">
-        <v>10</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="C19" s="2">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="3">
-        <v>10</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="C20" s="2">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="3">
-        <v>10</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="3">
-        <v>10</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="2">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="3">
-        <v>10</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="C23" s="2">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="3">
-        <v>10</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="2">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="3">
-        <v>10</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26" s="2">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="3">
-        <v>10</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="2">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="3">
-        <v>10</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="2">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="3">
-        <v>10</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="C29" s="2">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="3">
-        <v>10</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="C30" s="2">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="E30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2" t="s">
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="3">
-        <v>10</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="C31" s="2">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="E31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2" t="s">
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="E32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2" t="s">
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="3">
-        <v>10</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="C33" s="2">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="F33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="3">
-        <v>10</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="C34" s="2">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="2" t="s">
+      <c r="F34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="3">
-        <v>10</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="C35" s="2">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="2" t="s">
+      <c r="F35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="E36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="3">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2" t="s">
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="E37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G37" s="3">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2" t="s">
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="E38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G38" s="3">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2" t="s">
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="3">
-        <v>10</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="C39" s="2">
+        <v>10</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="1" t="s">
         <v>46</v>
       </c>
     </row>
